--- a/data/data/processed/customer_summary.xlsx
+++ b/data/data/processed/customer_summary.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CLV</t>
+          <t>TotalSpent</t>
         </is>
       </c>
     </row>
